--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560364/JX560364_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560364/JX560364_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89327919306</v>
+        <v>45441.83353563285</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1779_1781del']</t>
+          <t>['1977_2081del', '1818_1944del', '1906_2049insatctatacttgctccatgacagttagagtgtcatacgctctccaccaccatgcagtgtaagacgactgtattatttaggagccagctgatcgagtggtgacggcgggcagatggcactattaaagcgcttagtacaggggtta', '1918_1932instctcgtgcctctcc', '1846_1981insagtcgctactcccttactcctgtctctggtcggatgtcgtgctcgtctgagcactgaaaacatgaacggggctccacccgtatgggccccaagacctgagaaatgctatttcagccctcaaatttggtgtaaact']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.8932792162</v>
+        <v>45441.83353566178</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['623a&gt;g']</t>
+          <t>['683_744insttctataccctggtactcttcagggacaacattgagttcaaacagcccattagagtcgcta', '666_806del', '676_800instctaacaatagggcgcctttacccaaggtacacccctatgcataagggtgggattcacgcgtctcaaatggtggacttcagacctcagccacccaaccttgagccgtgattgcccatgcccaga', '637_774instcgtgacatcatcgccatcttagctccaatcgagccgaaaagtggtgagcatccccaggtaccgtggatctgcatgttgactggcgcggtggacatccgtctacgatatatccaactcggagtatcggcggatcggt', '639_717instcctccagtcgtattaacacggctttcatgaaagatgtgtcggatgaatctacagccttatgaggtagtctccttgaa']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89327923935</v>
+        <v>45441.83353568493</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3535_3537insgg']</t>
+          <t>['3590_3726del', '3561_3688del', '3598_3628del', '3555_3567del', '3566_3677del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89327926832</v>
+        <v>45441.83353570808</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1805_1809del']</t>
+          <t>['1982_2124insactgcgaattcacattaaacccatgctacctctggcgcccacttgaagacacaacagggaacttgccgccgatgaattaatcctctttcagcactatgctgattgtactacgtaagacccattgtttagcatggtagaccac', '1890_2022insatgcagatgcggcttcagccataggattccttcccaactagtggtattcgacctgggcttccataacccattgtgcaccctactgtaacacgaggataaaacgtatatatcgtgaacaccctctcgtgcctc', '1954_2095insagcagcaaaacgtaggtatcttcactggtacggaacggcctccagcttcacggtttaaccatacatccccggtgagcccgctaaatagctacttagtagtattgagggggcaggtggacctcaatgcacatgcctaggttt', '1795_1874del', '1845_1870inscataagaatcggttcctctcttcgc']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['626_627del']</t>
+          <t>['674_801del', '668_686insctaggtgtcgtaaaatat', '684_779insatgggtgaatgacggacggaccgtggcgtcgtgttataatcttgttcatcgcactaacgcgaacgtccttgcattgtactctggcaaaatcatgt', '692_793insttggacccctatctggatgtagaaggccgggagaacgaattctggcaacttgcagttaatatagtgctcagaggttatcggtctgcggacacgactgagtg', '676_813insatcaattgctacgcagttactgtacgcaccctatccacttacttcagacttaaggcagctggcgccctaggccagattacgcagtagtttgataaatctactagaaaatacagagaaacgaacacgaacccatgtaa']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89327928567</v>
+        <v>45441.83353573128</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1800_1802del']</t>
+          <t>['1928_2061del', '1758_1868instgttgtccagcagccttatcgggacgcacttcatttaacttaattacctaatccagccgcagtttaacgtgtcgtggtccctcgctgtaggtagacaacacgtagctaga', '1879_1895inscagaacttgcaagtct', '1769_1794insaggatggcctttacttgttgaacgt', '1975_2027del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3591_3594del']</t>
+          <t>['3527_3551del', '3618_3715del', '3605_3673del', '3558_3649del', '3537_3657insgcatataggttttcgatggtgtaccggtgactgggacttgagtagtgtcgcatagtcctcagctcgctccagctactagttcgacgcgctttctaacacacagataccttgggcgctctt']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89327930882</v>
+        <v>45441.83353576023</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['702_706del']</t>
+          <t>['612_756del', '612_683del', '622_739del', '617_640insgtcctcgaccaccacttgaaggc', '609_677del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3584_3586inscg']</t>
+          <t>['3541_3668insatgatggggtcgccgataataagcctatcatctgtggttaagtcccgtcgtgtgcgacctcgggactgagcatactgctcactctgacggggtgcttatgagacagcgttcacactagttgagttca', '3560_3614del', '3605_3725instcatagatgcaccaattagttaagtttgtctatgtcgatcgttaccccactgagggagacgtctatgcctacggtttagtgcatctattgaaaaagaccaagagcccttctggaaggtga', '3588_3705instgactctacctaagggcgacatagcacgaccactaaaacctgttttaaccgctgcgcgaccagcaatctttgcggcgtccgtgttgtccgatgaaaaaccatactgacttccacacg', '3605_3673insaacggcgctatcggaaacgttgtccgtagacgaaaagaaacagacacggacatactactttgggcaat']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89327932619</v>
+        <v>45441.83353578336</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1737_1739del']</t>
+          <t>['1925_1969del', '1771_1852del', '1784_1928insagctagataacgcagcacctagacccatggaggataaggcttatggtgaacttcaagcggacagtaatagcaggttattggtacagctcggcgaatctctaagttacgacagaacgagagtcaactctagtactattatacttc', '1776_1882insccgttaatggtgtagaaactggcttcttgctccaaattagcacagtgctgcgcatcttaaaggttttaaagatgaccatgaacctactaggaaggttgcgtgcacc', '1872_1943instattggaacaataaacgagttggataacattgggatttataatcggttattgcgattgaatcgtaatccac']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['620_625instcacc']</t>
+          <t>['679_763del', '657_686insttaaaaactatcgaaaattgatgccaatc', '617_741del', '624_640del', '660_763insacggcatagaatccgcaggcccgtgagacatgggtagtaggcactaccacaggtagcagggtacacagacattcttgaacacaacccactgagtccttggccg']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3542_3544del']</t>
+          <t>['3568_3678del', '3604_3634insctgtaacctagagctgagggcggcacacct', '3562_3596instccaggaaaaacgaggagggtgcttgtcctgagc', '3615_3663del', '3585_3668del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89327934933</v>
+        <v>45441.83353580652</v>
       </c>
     </row>
   </sheetData>
